--- a/kwitansi_output/detail_perhitungan_gaji.xlsx
+++ b/kwitansi_output/detail_perhitungan_gaji.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,180 +480,175 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Scan 3</t>
+          <t>Pulang Tengah Malam</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Pulang Tengah Malam</t>
+          <t>Tidak Scan Masuk</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tidak Scan Masuk</t>
+          <t>Tidak Scan Pulang</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Tidak Scan Pulang</t>
+          <t>Uang Makan</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Uang Makan</t>
+          <t>Keterangan Tidak Hadir</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Keterangan Tidak Hadir</t>
+          <t>Kasbon</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Kasbon</t>
+          <t>Keterangan</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Keterangan</t>
+          <t>Gaji Harian (Pokok)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Gaji Harian (Pokok)</t>
+          <t>Upah Lembur</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Upah Lembur</t>
+          <t>Nama Bank</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Nama Bank</t>
+          <t>Nama Akun Bank</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Nama Akun Bank</t>
+          <t>Nomor Rekening</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Nomor Rekening</t>
+          <t>Jam Masuk</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Jam Masuk</t>
+          <t>Jabatan</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Jabatan</t>
+          <t>Tanggal Join</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Tanggal Join</t>
+          <t>hari</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>hari</t>
+          <t>Keterangan Libur</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Keterangan Libur</t>
+          <t>is_holiday</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>is_holiday</t>
+          <t>scan_min</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>scan_min</t>
+          <t>scan_max</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>scan_max</t>
+          <t>scan_masuk</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>scan_masuk</t>
+          <t>scan_pulang</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>scan_pulang</t>
+          <t>masa_kerja</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>masa_kerja</t>
+          <t>uang_makan</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>uang_makan</t>
+          <t>jam_normal</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>jam_normal</t>
+          <t>jam_lembur</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>jam_lembur</t>
+          <t>timedelta</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>timedelta</t>
+          <t>gaji_normal</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>gaji_normal</t>
+          <t>gaji_lembur</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>gaji_lembur</t>
+          <t>total_denda</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>total_denda</t>
+          <t>total_gaji</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>total_gaji</t>
+          <t>total_gaji_harian</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>total_gaji_harian</t>
+          <t>gaji_final_sebelum_kasbon</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>gaji_final_sebelum_kasbon</t>
+          <t>total_kasbon</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>total_kasbon</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>gaji_final</t>
         </is>
@@ -661,1194 +656,3383 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="B2" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>44945</v>
+        <v>45658</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.614918981481481</v>
+        <v>1.322256944444445</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1.755231481481482</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1.917013888888889</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="P2" t="inlineStr">
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q2" t="n">
-        <v>110000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Bank BCA</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Kamis</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Rabu</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>1.322256944444445</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>1.614918981481481</v>
+        <v>1.917013888888889</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>1.755231481481482</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>1.614918981481481</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>1.755231481481482</v>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.917013888888889</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>3:22:3</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>14:0:30</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>100000</v>
       </c>
       <c r="AK2" t="n">
-        <v>48125</v>
+        <v>90000</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>24062.5</v>
+        <v>190000</v>
       </c>
       <c r="AN2" t="n">
-        <v>48125</v>
+        <v>190000</v>
       </c>
       <c r="AO2" t="n">
-        <v>-7937.5</v>
+        <v>2692500</v>
       </c>
       <c r="AP2" t="n">
-        <v>744791.6666666666</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>709791.6666666666</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="B3" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>44946</v>
+        <v>45659</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.329571759259259</v>
+        <v>1.336099537037037</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1.916701388888889</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1.918402777777778</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q3" t="n">
-        <v>110000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Bank BCA</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Jumat</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Kamis</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>1.336099537037037</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>1.329571759259259</v>
+        <v>1.918402777777778</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>1.916701388888889</v>
+        <v>1.336099537037037</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>1.916701388888889</v>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.918402777777778</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
         <v>6</v>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>14:0:3</t>
-        </is>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>13:58:31</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>100000</v>
       </c>
       <c r="AK3" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="AL3" t="n">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>55000</v>
+        <v>190000</v>
       </c>
       <c r="AN3" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="AO3" t="n">
-        <v>162000</v>
+        <v>2692500</v>
       </c>
       <c r="AP3" t="n">
-        <v>744791.6666666666</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>709791.6666666666</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="B4" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>44947</v>
+        <v>45660</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.336122685185185</v>
+        <v>1.344016203703704</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1.750081018518518</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1.162476851851852</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr">
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q4" t="n">
-        <v>110000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Bank BCA</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Sabtu</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Jumat</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>1.162476851851852</v>
       </c>
       <c r="AB4" s="2" t="n">
-        <v>1.336122685185185</v>
+        <v>1.344016203703704</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>1.750081018518518</v>
+        <v>1.344016203703704</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>1.336122685185185</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>1.750081018518518</v>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.162476851851852</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>9:56:6</t>
-        </is>
+        <v>11.5</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>19:38:35</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>100000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110000</v>
+        <v>172500</v>
       </c>
       <c r="AL4" t="n">
-        <v>36666.66666666666</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>110000</v>
+        <v>272500</v>
       </c>
       <c r="AN4" t="n">
-        <v>146666.6666666667</v>
+        <v>272500</v>
       </c>
       <c r="AO4" t="n">
-        <v>36666.66666666666</v>
+        <v>2692500</v>
       </c>
       <c r="AP4" t="n">
-        <v>744791.6666666666</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>709791.6666666666</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="B5" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>44948</v>
+        <v>45661</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.331747685185185</v>
+        <v>1.317164351851852</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1.916898148148148</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1.182986111111111</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q5" t="n">
-        <v>110000</v>
-      </c>
-      <c r="R5" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Bank BCA</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Minggu</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Sabtu</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Tahun Baru Imlek</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>1.182986111111111</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>1.331747685185185</v>
+        <v>1.317164351851852</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>1.916898148148148</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>1.916898148148148</v>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.182986111111111</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>14:0:20</t>
-        </is>
+        <v>12.5</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>20:23:30</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>100000</v>
       </c>
       <c r="AK5" t="n">
-        <v>165000</v>
+        <v>187500</v>
       </c>
       <c r="AL5" t="n">
-        <v>165000</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>287500</v>
       </c>
       <c r="AN5" t="n">
-        <v>330000</v>
+        <v>287500</v>
       </c>
       <c r="AO5" t="n">
-        <v>330000</v>
+        <v>2692500</v>
       </c>
       <c r="AP5" t="n">
-        <v>744791.6666666666</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>709791.6666666666</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="B6" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>44945</v>
+        <v>45663</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.614918981481481</v>
+        <v>1.281759259259259</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1.755231481481482</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1.104768518518519</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>32000</v>
-      </c>
-      <c r="P6" t="inlineStr">
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q6" t="n">
-        <v>250000</v>
-      </c>
-      <c r="R6" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Bank BRI</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Kamis</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>1.104768518518519</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1.614918981481481</v>
+        <v>1.281759259259259</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>1.755231481481482</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>1.614918981481481</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>1.755231481481482</v>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.104768518518519</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>3:22:3</t>
-        </is>
+        <v>10.5</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>18:30:52</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>100000</v>
       </c>
       <c r="AK6" t="n">
-        <v>109375</v>
+        <v>157500</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>54687.5</v>
+        <v>257500</v>
       </c>
       <c r="AN6" t="n">
-        <v>109375</v>
+        <v>257500</v>
       </c>
       <c r="AO6" t="n">
-        <v>22687.5</v>
+        <v>2692500</v>
       </c>
       <c r="AP6" t="n">
-        <v>1296041.666666667</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1261041.666666667</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="B7" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" s="2" t="n">
-        <v>44946</v>
+        <v>45664</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.329571759259259</v>
+        <v>1.342118055555556</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1.916701388888889</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1.924050925925926</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q7" t="n">
-        <v>250000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Bank BRI</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Jumat</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>1.342118055555556</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>1.329571759259259</v>
+        <v>1.924050925925926</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>1.916701388888889</v>
+        <v>1.342118055555556</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>1.916701388888889</v>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.924050925925926</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
         <v>6</v>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>14:0:3</t>
-        </is>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>13:57:59</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100000</v>
       </c>
       <c r="AK7" t="n">
-        <v>250000</v>
+        <v>90000</v>
       </c>
       <c r="AL7" t="n">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>125000</v>
+        <v>190000</v>
       </c>
       <c r="AN7" t="n">
-        <v>360000</v>
+        <v>190000</v>
       </c>
       <c r="AO7" t="n">
-        <v>232000</v>
+        <v>2692500</v>
       </c>
       <c r="AP7" t="n">
-        <v>1296041.666666667</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1261041.666666667</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="B8" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" s="2" t="n">
-        <v>44947</v>
+        <v>45665</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.336122685185185</v>
+        <v>1.288946759259259</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1.750081018518518</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1.292800925925926</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr">
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q8" t="n">
-        <v>250000</v>
-      </c>
-      <c r="R8" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Bank BRI</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Sabtu</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Rabu</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>1.288946759259259</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1.336122685185185</v>
+        <v>1.292800925925926</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>1.750081018518518</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>1.336122685185185</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>1.750081018518518</v>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
+        <v>1.288946759259259</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>9:56:6</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>22:56:5</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>100000</v>
       </c>
       <c r="AK8" t="n">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36666.66666666666</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>250000</v>
+        <v>325000</v>
       </c>
       <c r="AN8" t="n">
-        <v>286666.6666666667</v>
+        <v>325000</v>
       </c>
       <c r="AO8" t="n">
-        <v>36666.66666666669</v>
+        <v>2692500</v>
       </c>
       <c r="AP8" t="n">
-        <v>1296041.666666667</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1261041.666666667</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="B9" t="n">
-        <v>100320019</v>
+        <v>100623597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" s="2" t="n">
-        <v>44948</v>
+        <v>45666</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.331747685185185</v>
+        <v>1.344085648148148</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1.916898148148148</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1.981782407407407</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>HARIAN</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>100000</v>
+      </c>
       <c r="Q9" t="n">
-        <v>250000</v>
-      </c>
-      <c r="R9" t="n">
-        <v>18333.33333333333</v>
+        <v>15000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Bank BRI</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>6640619943</t>
-        </is>
-      </c>
-      <c r="V9" s="2" t="n">
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Lead</t>
-        </is>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>43841</v>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Kamis</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>1.344085648148148</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>1.981782407407407</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>1.344085648148148</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>1.981782407407407</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>15:18:17</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>205000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>205000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2692500</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2692500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1.330659722222222</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1.88037037037037</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya Hutama</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Jumat</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>1.330659722222222</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>1.88037037037037</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>1.88037037037037</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>13:7:44</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>75000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>175000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>175000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2692500</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2692500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>1.282662037037037</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1.949131944444444</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya Hutama</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>1.282662037037037</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>1.949131944444444</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>1.949131944444444</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>14:46:45</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>97500</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>197500</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>197500</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2692500</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2692500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1.318680555555556</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1.991782407407408</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya Hutama</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>1.318680555555556</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>1.991782407407408</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AD12" s="2" t="n">
+        <v>1.991782407407408</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>15:48:10</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>112500</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>212500</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>212500</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2692500</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2692500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100623597</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>1.322372685185185</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1.929039351851852</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Bank Mandiri</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Yusuf Pramudya Hutama</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1560022694287</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Rabu</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>1.322372685185185</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>1.929039351851852</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AD13" s="2" t="n">
+        <v>1.929039351851852</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>14:17:49</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2692500</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2692500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B14" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>1.325787037037037</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>1.918518518518519</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Kamis</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>1.325787037037037</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>1.918518518518519</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>1.918518518518519</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>14:2:40</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>1.331099537037037</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1.3525</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Sabtu</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>1.331099537037037</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>1.3525</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>1.3525</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>1.331099537037037</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>23:29:11</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>232500</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>332500</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>332500</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>1.393391203703704</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>1.796956018518518</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X16" t="inlineStr">
         <is>
           <t>Minggu</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Tahun Baru Imlek</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>1.393391203703704</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>1.796956018518518</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>1.393391203703704</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>1.796956018518518</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>9:41:8</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>33750</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>183750</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>183750</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1.348680555555556</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>1.921805555555556</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA17" s="2" t="n">
+        <v>1.348680555555556</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>1.921805555555556</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>1.348680555555556</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>1.921805555555556</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>13:45:18</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>82500</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>182500</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>182500</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>1.336180555555555</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>1.925115740740741</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>1.336180555555555</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>1.925115740740741</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>1.336180555555555</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>1.925115740740741</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>14:8:4</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>190000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B19" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>1.587881944444444</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>1.106701388888889</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AB9" s="2" t="n">
-        <v>1.331747685185185</v>
-      </c>
-      <c r="AC9" s="2" t="n">
-        <v>1.916898148148148</v>
-      </c>
-      <c r="AD9" s="2" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AE9" s="2" t="n">
-        <v>1.916898148148148</v>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
-        </is>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Kamis</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>1.106701388888889</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>1.587881944444444</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>1.587881944444444</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>1.106701388888889</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>8</v>
       </c>
-      <c r="AI9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>14:0:20</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v>375000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>165000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>540000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>540000</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1296041.666666667</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1261041.666666667</v>
+      <c r="AH19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>12:27:6</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67500</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>167500</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>167500</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>1.614930555555556</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>1.883402777777778</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Jumat</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>1.614930555555556</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>1.883402777777778</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>1.614930555555556</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>1.883402777777778</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>6:26:36</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>81250</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>81250</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>81250</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>1.34318287037037</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>1.813148148148148</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Sabtu</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>1.34318287037037</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>1.813148148148148</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>1.34318287037037</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>1.813148148148148</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>11:16:45</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>45000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>145000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>145000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>1.339143518518519</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>1.003622685185185</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA22" s="2" t="n">
+        <v>1.003622685185185</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>1.339143518518519</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>1.339143518518519</v>
+      </c>
+      <c r="AD22" s="2" t="n">
+        <v>1.003622685185185</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>15:56:51</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>120000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>220000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>220000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B23" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>1.340763888888889</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>1.979166666666667</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>102500</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA23" s="2" t="n">
+        <v>1.340763888888889</v>
+      </c>
+      <c r="AB23" s="2" t="n">
+        <v>1.979166666666667</v>
+      </c>
+      <c r="AC23" s="2" t="n">
+        <v>1.340763888888889</v>
+      </c>
+      <c r="AD23" s="2" t="n">
+        <v>1.979166666666667</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>15:19:18</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>205000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>52500</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1977500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100623598</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fajar Dafa</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>1.362638888888889</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>1.938993055555556</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>HARIAN</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Bank BCA</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>5776390247</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Intern Mechanical</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Rabu</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA24" s="2" t="n">
+        <v>1.362638888888889</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>1.938993055555556</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>1.362638888888889</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>1.938993055555556</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>0 Tahun 5 Bulan 22 Hari</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>13:49:57</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>82500</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>182500</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>182500</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>102500</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1977500</v>
       </c>
     </row>
   </sheetData>
